--- a/aws/whd/ProductForm/AmazonAMI-WHD-12_5_0_1257_Version_3.xlsx
+++ b/aws/whd/ProductForm/AmazonAMI-WHD-12_5_0_1257_Version_3.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="383">
   <si>
     <t>SKU</t>
   </si>
@@ -1240,9 +1240,6 @@
     <t>Here are the details of what the CloudFormation template launches in the customer environment.</t>
   </si>
   <si>
-    <t>http://www.solarwinds.com/documentation/WebHelpDesk/docs/WHDAdminGuide.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">SolarWinds® Web Help Desk® is a web-based automated ticketing solution that helps you manage your IT support requests for both internal and external clients. Use Web Help Desk to create and manage tickets through the web console. It also supports email ticket creation, automatic ticket assignment and escalation, asset management, and incident and problem management.
 All help desk processes are managed through the web console. After you set up the application, you can configure Web Help Desk to perform specific tasks. These tasks include routing tickets to a specific help desk technician or work group and creating new tickets from email requests or alert messages from a supported monitoring application.
 Key features
@@ -1258,6 +1255,12 @@
   </si>
   <si>
     <t>ami-a00636b7</t>
+  </si>
+  <si>
+    <t>https://support.solarwinds.com/Success_Center/Web_Help_Desk_(WHD)/WHD_Admin_Guide</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/solarwinds/marketplaces/master/aws/whd/WhdCloudFormationTemplate.json</t>
   </si>
 </sst>
 </file>
@@ -5276,10 +5279,10 @@
   </sheetPr>
   <dimension ref="A1:GM1180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="GA1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AB1" sqref="AB1"/>
-      <selection pane="bottomLeft" activeCell="AC2" sqref="AC2"/>
+      <selection pane="bottomLeft" activeCell="GK2" sqref="GK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="15.9" customHeight="1"/>
@@ -5934,7 +5937,7 @@
         <v>343</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F2" s="83" t="s">
         <v>344</v>
@@ -5999,7 +6002,7 @@
       <c r="Z2" s="90"/>
       <c r="AA2" s="90"/>
       <c r="AB2" s="107" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AC2" s="97"/>
       <c r="AD2" s="94" t="s">
@@ -6310,10 +6313,10 @@
         <v>378</v>
       </c>
       <c r="GL2" s="112" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="GM2" s="112" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:195" s="32" customFormat="1" ht="14.4">
@@ -66531,9 +66534,11 @@
     <hyperlink ref="S2" r:id="rId2"/>
     <hyperlink ref="V2" r:id="rId3"/>
     <hyperlink ref="GI2" r:id="rId4" location="r=IAD&amp;s=EC2&amp;key=calc-F520E1CF-1D46-4EA5-94EF-E03B6E14DF8D"/>
+    <hyperlink ref="GM2" r:id="rId5"/>
+    <hyperlink ref="GL2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -67154,18 +67159,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67283,6 +67288,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B5DC2E0-0871-44B1-89B4-ACA1409A331A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{926ACF4F-A83A-4655-A95E-1B7425DC877E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -67293,14 +67306,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B5DC2E0-0871-44B1-89B4-ACA1409A331A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
